--- a/data/trans_orig/P72-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P72-Estudios-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5253</v>
+        <v>4029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001492903779819458</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008627161696718073</v>
+        <v>0.006616178146526481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5188</v>
+        <v>4671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0006922764288979824</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00395065155612026</v>
+        <v>0.003557297598534365</v>
       </c>
     </row>
     <row r="5">
@@ -806,19 +806,19 @@
         <v>3556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10018</v>
+        <v>11214</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005840289363804829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001395258287516436</v>
+        <v>0.001398339883373142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01645192722970239</v>
+        <v>0.01841500663526176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6196</v>
+        <v>6140</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001874340229197324</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008797937134708089</v>
+        <v>0.008719177338169484</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -848,19 +848,19 @@
         <v>4876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11673</v>
+        <v>13130</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003713395861054023</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001004751054895739</v>
+        <v>0.001000936931509097</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008889144373069344</v>
+        <v>0.009998732277908375</v>
       </c>
     </row>
     <row r="6">
@@ -877,19 +877,19 @@
         <v>8591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3716</v>
+        <v>3808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16173</v>
+        <v>16777</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01410788710483496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006101798000071493</v>
+        <v>0.006252803640775707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02655886810448741</v>
+        <v>0.0275514909440524</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -898,19 +898,19 @@
         <v>10712</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5382</v>
+        <v>5819</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18751</v>
+        <v>19875</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01521038051774034</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007641571455716145</v>
+        <v>0.008263271632954681</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02662644851743193</v>
+        <v>0.02822235520629733</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -919,19 +919,19 @@
         <v>19303</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11690</v>
+        <v>11428</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30233</v>
+        <v>29347</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01469914180759253</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008902119646720195</v>
+        <v>0.008702629839716461</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02302250468160591</v>
+        <v>0.02234825926965313</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>42232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31014</v>
+        <v>31052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56546</v>
+        <v>58294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06935391803841287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05093188989418981</v>
+        <v>0.05099410479692131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09286063770284575</v>
+        <v>0.09573029839506014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -969,19 +969,19 @@
         <v>37738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26566</v>
+        <v>27851</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50460</v>
+        <v>51235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05358647846198052</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03772317066621898</v>
+        <v>0.03954762581888843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07165184268935693</v>
+        <v>0.07275139487766399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -990,19 +990,19 @@
         <v>79970</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64068</v>
+        <v>63650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97866</v>
+        <v>99714</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06089801917236531</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0487885229945484</v>
+        <v>0.04846999030564346</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07452589289520967</v>
+        <v>0.07593345961982639</v>
       </c>
     </row>
     <row r="8">
@@ -1019,19 +1019,19 @@
         <v>129065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110288</v>
+        <v>107441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148513</v>
+        <v>149808</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2119525574920827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1811158749224189</v>
+        <v>0.1764408506029581</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2438892015103664</v>
+        <v>0.2460158548353708</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -1040,19 +1040,19 @@
         <v>101966</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83535</v>
+        <v>83161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>122554</v>
+        <v>119811</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1447884570234826</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1186169933957097</v>
+        <v>0.1180865416239498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1740223757551933</v>
+        <v>0.1701277412886796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>228</v>
@@ -1061,19 +1061,19 @@
         <v>231031</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>205470</v>
+        <v>207164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>259437</v>
+        <v>255993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1759332128014945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1564679547494035</v>
+        <v>0.1577578513870517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1975648243096078</v>
+        <v>0.1949417873143197</v>
       </c>
     </row>
     <row r="9">
@@ -1090,19 +1090,19 @@
         <v>191184</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>169429</v>
+        <v>170594</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>215013</v>
+        <v>219901</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3139641908781062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2782384931131157</v>
+        <v>0.2801508365741886</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3530971853228475</v>
+        <v>0.3611239624276499</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>223</v>
@@ -1111,19 +1111,19 @@
         <v>230154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>204500</v>
+        <v>206520</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>256923</v>
+        <v>257021</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3268117411727815</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.290383236404747</v>
+        <v>0.2932513871332369</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3648226051839582</v>
+        <v>0.3649623845556561</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>411</v>
@@ -1132,19 +1132,19 @@
         <v>421338</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>385646</v>
+        <v>388117</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>456518</v>
+        <v>456606</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3208541862664896</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2936744568185574</v>
+        <v>0.2955557844335703</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3476443467860176</v>
+        <v>0.3477112456696732</v>
       </c>
     </row>
     <row r="10">
@@ -1161,19 +1161,19 @@
         <v>211434</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>188616</v>
+        <v>187952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>236080</v>
+        <v>233797</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3472192695398347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3097465807357825</v>
+        <v>0.3086567585426018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3876928416837485</v>
+        <v>0.3839435978965958</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -1182,19 +1182,19 @@
         <v>249642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>223428</v>
+        <v>222115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275886</v>
+        <v>273312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3544842653171045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3172608598719082</v>
+        <v>0.3153962984775093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3917499209653097</v>
+        <v>0.3880948907348674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>458</v>
@@ -1203,19 +1203,19 @@
         <v>461076</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>430348</v>
+        <v>426202</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>496995</v>
+        <v>494236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3511154043090257</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3277154724929187</v>
+        <v>0.324558160340484</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3784676954265205</v>
+        <v>0.3763672338350456</v>
       </c>
     </row>
     <row r="11">
@@ -1232,19 +1232,19 @@
         <v>21964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14105</v>
+        <v>14222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32416</v>
+        <v>33203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03606898380310426</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02316344648660739</v>
+        <v>0.0233561805469851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05323357328445517</v>
+        <v>0.05452644582931495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>70</v>
@@ -1253,19 +1253,19 @@
         <v>72709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59273</v>
+        <v>56993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90060</v>
+        <v>89051</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1032443372777131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08416609313006319</v>
+        <v>0.08092877715864465</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1278824459363951</v>
+        <v>0.1264490806054686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -1274,19 +1274,19 @@
         <v>94673</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78076</v>
+        <v>78390</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115060</v>
+        <v>116340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07209436335308031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05945559611008777</v>
+        <v>0.05969516819933728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08761973301357175</v>
+        <v>0.08859452358420605</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9956</v>
+        <v>11252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002999449249650224</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01093891884406692</v>
+        <v>0.01236289893403136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6239</v>
+        <v>6895</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002496999531608852</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007800569048463773</v>
+        <v>0.008620089370738415</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1420,19 +1420,19 @@
         <v>4727</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1791</v>
+        <v>1753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13075</v>
+        <v>14130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002764435874748328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001047573420659386</v>
+        <v>0.001025125969330095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007646216141548571</v>
+        <v>0.008263245390549479</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>23220</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15304</v>
+        <v>14529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34699</v>
+        <v>34515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02551211546958554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01681425410947875</v>
+        <v>0.0159627883902144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03812379768213028</v>
+        <v>0.03792130275731416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1470,19 +1470,19 @@
         <v>12634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7014</v>
+        <v>7108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21374</v>
+        <v>21918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01579638778862824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008770000617776079</v>
+        <v>0.008887361858906774</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02672345786809336</v>
+        <v>0.02740359745755641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1491,19 +1491,19 @@
         <v>35855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26046</v>
+        <v>24836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50398</v>
+        <v>49352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02096772849922299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01523160903530691</v>
+        <v>0.01452430393950827</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0294726839665297</v>
+        <v>0.02886105047244187</v>
       </c>
     </row>
     <row r="15">
@@ -1520,19 +1520,19 @@
         <v>36671</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25775</v>
+        <v>25810</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50202</v>
+        <v>49987</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04029067524963229</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02831843647056323</v>
+        <v>0.02835776269059405</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05515683975452243</v>
+        <v>0.0549200751875499</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -1541,19 +1541,19 @@
         <v>33817</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24017</v>
+        <v>23817</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46677</v>
+        <v>46377</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04228086162793405</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03002786122730934</v>
+        <v>0.02977786174309862</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05835925592112815</v>
+        <v>0.05798402241148656</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>69</v>
@@ -1562,19 +1562,19 @@
         <v>70489</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>55148</v>
+        <v>55330</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>90627</v>
+        <v>90599</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04122155529723531</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03225060631355041</v>
+        <v>0.03235669916545461</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05299874224087114</v>
+        <v>0.05298209760224989</v>
       </c>
     </row>
     <row r="16">
@@ -1591,19 +1591,19 @@
         <v>136332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112254</v>
+        <v>114836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157922</v>
+        <v>159705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.14978724839938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1233331859745849</v>
+        <v>0.1261704099274208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.173508593208806</v>
+        <v>0.1754670732066653</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -1612,19 +1612,19 @@
         <v>131578</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112160</v>
+        <v>113141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>154340</v>
+        <v>153824</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1645088745430373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.140230865756294</v>
+        <v>0.1414572756363662</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1929682447306421</v>
+        <v>0.1923228526174529</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>259</v>
@@ -1633,19 +1633,19 @@
         <v>267910</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>238214</v>
+        <v>237391</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300566</v>
+        <v>298038</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1566730698454575</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1393072902052811</v>
+        <v>0.1388259824033263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1757704585931911</v>
+        <v>0.1742917836864603</v>
       </c>
     </row>
     <row r="17">
@@ -1662,19 +1662,19 @@
         <v>294620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>267065</v>
+        <v>267592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>325891</v>
+        <v>323872</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3236978993433788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2934231102726103</v>
+        <v>0.2940027125306883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3580552371709932</v>
+        <v>0.3558374786929126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -1683,19 +1683,19 @@
         <v>218592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194842</v>
+        <v>194545</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>247556</v>
+        <v>246888</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.273300016050757</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2436069703864865</v>
+        <v>0.2432344448702512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3095133286160845</v>
+        <v>0.308677801258033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>501</v>
@@ -1704,19 +1704,19 @@
         <v>513211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>478726</v>
+        <v>474707</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>555759</v>
+        <v>549500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.30012503978107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2799578630004068</v>
+        <v>0.2776078981078876</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3250068469180004</v>
+        <v>0.3213462505151714</v>
       </c>
     </row>
     <row r="18">
@@ -1733,19 +1733,19 @@
         <v>312945</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>284830</v>
+        <v>286492</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>343772</v>
+        <v>345588</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3438317491618407</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3129413737257709</v>
+        <v>0.3147681642918926</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3777016129373073</v>
+        <v>0.3796967690832451</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>285</v>
@@ -1754,19 +1754,19 @@
         <v>291567</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>265684</v>
+        <v>261673</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>317129</v>
+        <v>318159</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.364538925356831</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3321789587295265</v>
+        <v>0.3271635043765284</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3964992483406171</v>
+        <v>0.397786243960532</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>593</v>
@@ -1775,19 +1775,19 @@
         <v>604512</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>564304</v>
+        <v>566971</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>641809</v>
+        <v>647085</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3535172225286944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3300040208630484</v>
+        <v>0.331563775754553</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3753288417396499</v>
+        <v>0.3784139331936281</v>
       </c>
     </row>
     <row r="19">
@@ -1804,19 +1804,19 @@
         <v>92802</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75559</v>
+        <v>74728</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113598</v>
+        <v>112524</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1019615998631948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08301699668131025</v>
+        <v>0.08210299862979263</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1248103016031345</v>
+        <v>0.1236294519778342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>92</v>
@@ -1825,19 +1825,19 @@
         <v>97862</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79671</v>
+        <v>79164</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118729</v>
+        <v>118975</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1223544503052517</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09961122514483153</v>
+        <v>0.09897676801235181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1484441213442824</v>
+        <v>0.1487521124621801</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>181</v>
@@ -1846,19 +1846,19 @@
         <v>190664</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>164660</v>
+        <v>164354</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>219052</v>
+        <v>216088</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1115000520389462</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09629290370957166</v>
+        <v>0.09611371446639017</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1281009272070067</v>
+        <v>0.1263680488885069</v>
       </c>
     </row>
     <row r="20">
@@ -1875,19 +1875,19 @@
         <v>10849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5564</v>
+        <v>5144</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19958</v>
+        <v>20105</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0119192632633378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006112822863239328</v>
+        <v>0.005652238967827202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02192747110885839</v>
+        <v>0.02208894852412539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1896,19 +1896,19 @@
         <v>11776</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6027</v>
+        <v>5966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19521</v>
+        <v>19988</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0147234847959518</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007536023201506345</v>
+        <v>0.007458548871614629</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02440711414687031</v>
+        <v>0.02499020407595728</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1917,19 +1917,19 @@
         <v>22625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14656</v>
+        <v>14492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35549</v>
+        <v>33815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01323089613462526</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008570665915440128</v>
+        <v>0.008475115186245719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02078904782371696</v>
+        <v>0.019775153591019</v>
       </c>
     </row>
     <row r="21">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8869</v>
+        <v>10168</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008849478655859869</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02925549771588648</v>
+        <v>0.03354271483851751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2042,19 +2042,19 @@
         <v>4164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10483</v>
+        <v>10560</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01692682796736666</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004191061681461657</v>
+        <v>0.00412318134960554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04260858172275403</v>
+        <v>0.04292441176533238</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2063,19 +2063,19 @@
         <v>6847</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2536</v>
+        <v>2311</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14128</v>
+        <v>14422</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01246804602046655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00461842266398391</v>
+        <v>0.004207826787128743</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02572593434489179</v>
+        <v>0.02626109959205439</v>
       </c>
     </row>
     <row r="23">
@@ -2092,19 +2092,19 @@
         <v>35986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25797</v>
+        <v>25419</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48579</v>
+        <v>48795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1187054442435509</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08509790733820781</v>
+        <v>0.08384952462506783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1602482922423075</v>
+        <v>0.1609601670754481</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -2113,19 +2113,19 @@
         <v>18352</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11478</v>
+        <v>11550</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28605</v>
+        <v>28798</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07459561387941101</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04665524480909171</v>
+        <v>0.04694503012511966</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1162697128469382</v>
+        <v>0.117052098146727</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>51</v>
@@ -2134,19 +2134,19 @@
         <v>54338</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41386</v>
+        <v>42567</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>70086</v>
+        <v>71093</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09894470511262948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07536055591961441</v>
+        <v>0.07751127190550562</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1276203337857511</v>
+        <v>0.1294551474231522</v>
       </c>
     </row>
     <row r="24">
@@ -2163,19 +2163,19 @@
         <v>40848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29213</v>
+        <v>29376</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>54751</v>
+        <v>52173</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1347450076579759</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09636483706436021</v>
+        <v>0.09690205955113154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1806072090569085</v>
+        <v>0.1721024807840482</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2184,19 +2184,19 @@
         <v>36994</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25836</v>
+        <v>27115</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47645</v>
+        <v>49635</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1503671225493758</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1050160833507498</v>
+        <v>0.1102113415230563</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1936591607485127</v>
+        <v>0.2017487522550023</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -2205,19 +2205,19 @@
         <v>77842</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61961</v>
+        <v>62054</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>95576</v>
+        <v>95412</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1417435504883107</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1128251105433063</v>
+        <v>0.1129943629657182</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1740359631078233</v>
+        <v>0.1737372735038723</v>
       </c>
     </row>
     <row r="25">
@@ -2234,19 +2234,19 @@
         <v>83373</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67294</v>
+        <v>69320</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100582</v>
+        <v>100642</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2750233708851866</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2219815157052316</v>
+        <v>0.2286661182539736</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3317882064887618</v>
+        <v>0.3319874592129675</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2255,19 +2255,19 @@
         <v>54971</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42133</v>
+        <v>43041</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68904</v>
+        <v>69953</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2234390227623347</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1712565727230109</v>
+        <v>0.1749443544973384</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2800692151236909</v>
+        <v>0.2843343408856083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>133</v>
@@ -2276,19 +2276,19 @@
         <v>138345</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117104</v>
+        <v>118509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158727</v>
+        <v>160547</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2519141265720864</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2132364039983678</v>
+        <v>0.2157942725582308</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2890287189329802</v>
+        <v>0.2923424209469784</v>
       </c>
     </row>
     <row r="26">
@@ -2305,19 +2305,19 @@
         <v>79565</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63612</v>
+        <v>64303</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96016</v>
+        <v>97272</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2624600680873836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.20983767418312</v>
+        <v>0.2121152257334771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3167272219861368</v>
+        <v>0.3208715240948978</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -2326,19 +2326,19 @@
         <v>55324</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42742</v>
+        <v>41842</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68695</v>
+        <v>69807</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2248734696735115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1737328771791574</v>
+        <v>0.1700722055560032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2792217057306736</v>
+        <v>0.2837401393728521</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>126</v>
@@ -2347,19 +2347,19 @@
         <v>134889</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>114222</v>
+        <v>115745</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>156948</v>
+        <v>155628</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2456216681220312</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2079896012052796</v>
+        <v>0.2107628642531141</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2857895856974411</v>
+        <v>0.2833864559068708</v>
       </c>
     </row>
     <row r="27">
@@ -2376,19 +2376,19 @@
         <v>46432</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>35360</v>
+        <v>34143</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>62497</v>
+        <v>60957</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1531651330790352</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1166409398719357</v>
+        <v>0.1126262704662155</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2061596112974335</v>
+        <v>0.2010799634470434</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -2397,19 +2397,19 @@
         <v>49959</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37620</v>
+        <v>37584</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>62383</v>
+        <v>63447</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2030637860161871</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1529121744316024</v>
+        <v>0.1527642221501069</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2535665491210585</v>
+        <v>0.2578905188562886</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>90</v>
@@ -2418,19 +2418,19 @@
         <v>96391</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>79825</v>
+        <v>78490</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>117092</v>
+        <v>115962</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1755192037144341</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.145353771638707</v>
+        <v>0.1429236563748356</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2132142760970986</v>
+        <v>0.211157978084016</v>
       </c>
     </row>
     <row r="28">
@@ -2447,19 +2447,19 @@
         <v>9178</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4402</v>
+        <v>4559</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16913</v>
+        <v>17135</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03027557641708466</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01452242626642775</v>
+        <v>0.01503722827148278</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0557904160079732</v>
+        <v>0.05652219045542868</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -2468,19 +2468,19 @@
         <v>21847</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14547</v>
+        <v>13669</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32251</v>
+        <v>32132</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08879992464401508</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05912638857719126</v>
+        <v>0.05555965038141358</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1310873618503665</v>
+        <v>0.1306040365759316</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>30</v>
@@ -2489,19 +2489,19 @@
         <v>31025</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21507</v>
+        <v>20486</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>43951</v>
+        <v>43429</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0564938676363537</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03916282265189968</v>
+        <v>0.03730330390568216</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08003046622448344</v>
+        <v>0.07908080986651347</v>
       </c>
     </row>
     <row r="29">
@@ -2518,19 +2518,19 @@
         <v>5086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1079</v>
+        <v>1458</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11518</v>
+        <v>12626</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01677592097392321</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003559878006556159</v>
+        <v>0.004810864928665681</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03799433464453365</v>
+        <v>0.0416493429222214</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2539,19 +2539,19 @@
         <v>4412</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12191</v>
+        <v>11178</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01793423250779816</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006402980648397232</v>
+        <v>0.006412919111935949</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04955069832054747</v>
+        <v>0.04543399418085129</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2560,19 +2560,19 @@
         <v>9498</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4687</v>
+        <v>3863</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18240</v>
+        <v>18176</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01729483233368778</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00853385091012277</v>
+        <v>0.007033464769172926</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03321351957163898</v>
+        <v>0.03309666414798672</v>
       </c>
     </row>
     <row r="30">
@@ -2664,19 +2664,19 @@
         <v>6322</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2032</v>
+        <v>1834</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14505</v>
+        <v>14100</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0034692240340443</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001114877462621319</v>
+        <v>0.001006186145142291</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.007960183225802003</v>
+        <v>0.007737689946546407</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2685,19 +2685,19 @@
         <v>6162</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2169</v>
+        <v>2923</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13334</v>
+        <v>13436</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003520717685825732</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001239224233218248</v>
+        <v>0.001669943618127096</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.007619318238344048</v>
+        <v>0.007677306850397991</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -2706,19 +2706,19 @@
         <v>12483</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6737</v>
+        <v>6501</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22375</v>
+        <v>21407</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003494450752405992</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001885992028338802</v>
+        <v>0.001819754297847709</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.006263267223494452</v>
+        <v>0.005992317366530479</v>
       </c>
     </row>
     <row r="32">
@@ -2735,19 +2735,19 @@
         <v>62762</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>47913</v>
+        <v>48875</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79308</v>
+        <v>81055</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03444210387750378</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02629306124303007</v>
+        <v>0.02682109362791072</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04352175004195527</v>
+        <v>0.04448049018750627</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -2756,19 +2756,19 @@
         <v>32307</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22627</v>
+        <v>22104</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45755</v>
+        <v>45061</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01845999829067772</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0129288904481532</v>
+        <v>0.01262993404930806</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02614422611799025</v>
+        <v>0.0257477094451223</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -2777,19 +2777,19 @@
         <v>95069</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75303</v>
+        <v>76545</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115894</v>
+        <v>118487</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02661247706880527</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02107952978903948</v>
+        <v>0.02142711800207591</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03244197197567698</v>
+        <v>0.03316789702257355</v>
       </c>
     </row>
     <row r="33">
@@ -2806,19 +2806,19 @@
         <v>86110</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>70258</v>
+        <v>69636</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>107746</v>
+        <v>105822</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04725470349861655</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03855573613615304</v>
+        <v>0.03821447461319798</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05912778405245653</v>
+        <v>0.05807233729392641</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>78</v>
@@ -2827,19 +2827,19 @@
         <v>81523</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>64577</v>
+        <v>65073</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>101705</v>
+        <v>100925</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04658218099343886</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03689908366735057</v>
+        <v>0.03718247545870372</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05811411476673562</v>
+        <v>0.05766876899562154</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>163</v>
@@ -2848,19 +2848,19 @@
         <v>167633</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>142708</v>
+        <v>144440</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>194158</v>
+        <v>193108</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04692523500603365</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03994809957625763</v>
+        <v>0.04043279828367388</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05435030863570924</v>
+        <v>0.05405650112428313</v>
       </c>
     </row>
     <row r="34">
@@ -2877,19 +2877,19 @@
         <v>261937</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>231912</v>
+        <v>233928</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>293658</v>
+        <v>297431</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.143743459772482</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1272663990246495</v>
+        <v>0.1283727375039032</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1611512554116914</v>
+        <v>0.16322133631245</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>220</v>
@@ -2898,19 +2898,19 @@
         <v>224287</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>198711</v>
+        <v>195311</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>252288</v>
+        <v>250825</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1281576359109593</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1135434784017728</v>
+        <v>0.1116004844894099</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1441571902896844</v>
+        <v>0.1433211790990669</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>471</v>
@@ -2919,19 +2919,19 @@
         <v>486224</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>446841</v>
+        <v>447304</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>527337</v>
+        <v>526790</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1361079712144274</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1250834506669905</v>
+        <v>0.1252132105011408</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1476167413314655</v>
+        <v>0.147463495617319</v>
       </c>
     </row>
     <row r="35">
@@ -2948,19 +2948,19 @@
         <v>503250</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>467055</v>
+        <v>464638</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>542335</v>
+        <v>544724</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2761689065697386</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.256306364086172</v>
+        <v>0.2549801202537358</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.297617596129024</v>
+        <v>0.2989289063781531</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>369</v>
@@ -2969,19 +2969,19 @@
         <v>375882</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>341681</v>
+        <v>344569</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>412421</v>
+        <v>410276</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2147788339606051</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1952363444253546</v>
+        <v>0.1968867285498868</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2356572723841983</v>
+        <v>0.2344316877923247</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>855</v>
@@ -2990,19 +2990,19 @@
         <v>879132</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>830736</v>
+        <v>826981</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>932271</v>
+        <v>925769</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2460939358046458</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2325465717262045</v>
+        <v>0.2314953625993351</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2609690421775022</v>
+        <v>0.2591489129116781</v>
       </c>
     </row>
     <row r="36">
@@ -3019,19 +3019,19 @@
         <v>550560</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>514374</v>
+        <v>509334</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>590599</v>
+        <v>594335</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3021317406579757</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2822736785362271</v>
+        <v>0.2795078863701037</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3241038859323061</v>
+        <v>0.3261540886030743</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>555</v>
@@ -3040,19 +3040,19 @@
         <v>571680</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>535299</v>
+        <v>531242</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>613686</v>
+        <v>612601</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3266575052332101</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3058695196275417</v>
+        <v>0.3035515725362032</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3506597531218379</v>
+        <v>0.3500397028049155</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1094</v>
@@ -3061,19 +3061,19 @@
         <v>1122240</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1063456</v>
+        <v>1068333</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1179120</v>
+        <v>1178673</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3141469024136564</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2976914857438147</v>
+        <v>0.2990568172652748</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3300690586535205</v>
+        <v>0.3299439231716864</v>
       </c>
     </row>
     <row r="37">
@@ -3090,19 +3090,19 @@
         <v>313414</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>285305</v>
+        <v>282751</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>348659</v>
+        <v>342610</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1719926347701101</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1565672920869412</v>
+        <v>0.1551656518468027</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1913342031196346</v>
+        <v>0.1880143262366787</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>354</v>
@@ -3111,19 +3111,19 @@
         <v>369351</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>333945</v>
+        <v>336126</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>405268</v>
+        <v>402188</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2110472047998804</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1908162264796575</v>
+        <v>0.1920622933515246</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2315698246962587</v>
+        <v>0.2298100326504913</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>669</v>
@@ -3132,19 +3132,19 @@
         <v>682765</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>639204</v>
+        <v>638120</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>726311</v>
+        <v>731428</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1911254522105941</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1789312409912123</v>
+        <v>0.17862800298351</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2033151451368321</v>
+        <v>0.2047475646227027</v>
       </c>
     </row>
     <row r="38">
@@ -3161,19 +3161,19 @@
         <v>37898</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>27838</v>
+        <v>26363</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>55177</v>
+        <v>50643</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02079722681952896</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01527687455433446</v>
+        <v>0.01446739138809646</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03027974252469658</v>
+        <v>0.02779128199301538</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>86</v>
@@ -3182,19 +3182,19 @@
         <v>88897</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>69861</v>
+        <v>72450</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>108404</v>
+        <v>109039</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05079592312540276</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03991836057151869</v>
+        <v>0.04139797726442036</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06194224446569157</v>
+        <v>0.06230463816312441</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>121</v>
@@ -3203,19 +3203,19 @@
         <v>126795</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>107250</v>
+        <v>105574</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>149594</v>
+        <v>151874</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03549357552943131</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03002242775157475</v>
+        <v>0.0295530259807095</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04187565009352449</v>
+        <v>0.04251380315384444</v>
       </c>
     </row>
     <row r="39">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7495</v>
+        <v>7589</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001950444219202255</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006850409026235806</v>
+        <v>0.00693591496767176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7019</v>
+        <v>8543</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001129761863815546</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003715593579150323</v>
+        <v>0.004522644686727537</v>
       </c>
     </row>
     <row r="5">
@@ -3609,19 +3609,19 @@
         <v>4066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9289</v>
+        <v>9353</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005115973827826879</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001215036361095508</v>
+        <v>0.001203246818671723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01168741870870291</v>
+        <v>0.01176774187810484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7263</v>
+        <v>5689</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001731105896905344</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.006637867064458545</v>
+        <v>0.005199769662349506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -3651,19 +3651,19 @@
         <v>5960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2419</v>
+        <v>2825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12087</v>
+        <v>12755</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003155346261676095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001280536270916493</v>
+        <v>0.001495687599033237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006398634818720088</v>
+        <v>0.006752244860327583</v>
       </c>
     </row>
     <row r="6">
@@ -3680,19 +3680,19 @@
         <v>3743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>921</v>
+        <v>948</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9738</v>
+        <v>8658</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004709036261895562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001158238210444137</v>
+        <v>0.00119290511067178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01225169860139053</v>
+        <v>0.010893303422404</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3701,19 +3701,19 @@
         <v>6145</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2175</v>
+        <v>2111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14166</v>
+        <v>13948</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005615802009044618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001987685295528844</v>
+        <v>0.001929784506965563</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.012947135494296</v>
+        <v>0.01274742094710954</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -3722,19 +3722,19 @@
         <v>9887</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4822</v>
+        <v>4840</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18536</v>
+        <v>19290</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005234265002332042</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002552464797317482</v>
+        <v>0.002562469856037618</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009812567204833157</v>
+        <v>0.01021220285071336</v>
       </c>
     </row>
     <row r="7">
@@ -3751,19 +3751,19 @@
         <v>19052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11421</v>
+        <v>11631</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30579</v>
+        <v>31534</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02397080205910862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01436966727909054</v>
+        <v>0.01463416293487149</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03847351055527681</v>
+        <v>0.03967428655720032</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -3772,19 +3772,19 @@
         <v>29882</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19441</v>
+        <v>20085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42252</v>
+        <v>43246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02731031490089149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01776816354923521</v>
+        <v>0.01835715833945701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03861680356269631</v>
+        <v>0.03952524184606016</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -3793,19 +3793,19 @@
         <v>48934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36119</v>
+        <v>36669</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64544</v>
+        <v>64538</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02590515845608966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01912130359175761</v>
+        <v>0.01941229975544242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03416916258492608</v>
+        <v>0.03416584165299649</v>
       </c>
     </row>
     <row r="8">
@@ -3822,19 +3822,19 @@
         <v>82075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63866</v>
+        <v>67320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101441</v>
+        <v>103505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1032640205525292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08035411370542535</v>
+        <v>0.08469972709781103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1276284121966578</v>
+        <v>0.1302254193249365</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -3843,19 +3843,19 @@
         <v>95279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77194</v>
+        <v>76755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>114231</v>
+        <v>113307</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08708015940155685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0705520829705535</v>
+        <v>0.07015088776551821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1044020065433343</v>
+        <v>0.1035577404937605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>161</v>
@@ -3864,19 +3864,19 @@
         <v>177354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152037</v>
+        <v>153366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>204937</v>
+        <v>206365</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09388979238560795</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0804869332805819</v>
+        <v>0.08119053634216902</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1084918951017276</v>
+        <v>0.1092480687206877</v>
       </c>
     </row>
     <row r="9">
@@ -3893,19 +3893,19 @@
         <v>297829</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>267943</v>
+        <v>271751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>325145</v>
+        <v>324642</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3747163232134372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3371155079944133</v>
+        <v>0.3419065832320359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4090840562291845</v>
+        <v>0.4084519214125313</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>362</v>
@@ -3914,19 +3914,19 @@
         <v>389726</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>357915</v>
+        <v>359190</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>425179</v>
+        <v>423669</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3561916379162093</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3271174317913664</v>
+        <v>0.3282826569676263</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3885932935748079</v>
+        <v>0.3872133800218625</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>641</v>
@@ -3935,19 +3935,19 @@
         <v>687555</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>642426</v>
+        <v>646752</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>729713</v>
+        <v>732007</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3639862122049037</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3400950650216871</v>
+        <v>0.3423855836921603</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3863043404845339</v>
+        <v>0.3875186606570913</v>
       </c>
     </row>
     <row r="10">
@@ -3964,19 +3964,19 @@
         <v>327898</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>299012</v>
+        <v>296322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>356208</v>
+        <v>355784</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4125478229904445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3762043123766926</v>
+        <v>0.3728204415871028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4481668629733698</v>
+        <v>0.4476322837096652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>472</v>
@@ -3985,19 +3985,19 @@
         <v>499445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>465047</v>
+        <v>467407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>532029</v>
+        <v>533982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4564691719573598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4250314281824156</v>
+        <v>0.4271877605090021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.486249147461833</v>
+        <v>0.4880347139949296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>779</v>
@@ -4006,19 +4006,19 @@
         <v>827342</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>783351</v>
+        <v>786492</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>879158</v>
+        <v>871968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4379885223868366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4146999465092679</v>
+        <v>0.4163628220837106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4654193949098649</v>
+        <v>0.4616127314211449</v>
       </c>
     </row>
     <row r="11">
@@ -4035,19 +4035,19 @@
         <v>60148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45484</v>
+        <v>45190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76036</v>
+        <v>76369</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07567602109475809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05722600296091632</v>
+        <v>0.05685559454395578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09566538112967542</v>
+        <v>0.09608450861180745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -4056,19 +4056,19 @@
         <v>69644</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55800</v>
+        <v>55383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88372</v>
+        <v>87085</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0636513636988304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05099826986716331</v>
+        <v>0.05061745235124946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08076814545885522</v>
+        <v>0.07959160180949502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -4077,19 +4077,19 @@
         <v>129792</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109079</v>
+        <v>109604</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>153642</v>
+        <v>153665</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06871094143873849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05774570968200313</v>
+        <v>0.05802346899229305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08133675972543808</v>
+        <v>0.08134910720764756</v>
       </c>
     </row>
     <row r="12">
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5028</v>
+        <v>4909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0006141609489427052</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00344960692497564</v>
+        <v>0.003367966680615185</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6038</v>
+        <v>5975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001485210483209708</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.004530083864194381</v>
+        <v>0.004482798849572203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -4223,19 +4223,19 @@
         <v>2875</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7780</v>
+        <v>8647</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00103018805750663</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.000319366111277129</v>
+        <v>0.0003208196931907288</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00278803491222647</v>
+        <v>0.003098846488672295</v>
       </c>
     </row>
     <row r="14">
@@ -4252,19 +4252,19 @@
         <v>25481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15827</v>
+        <v>16116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40371</v>
+        <v>39366</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01748050208788426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01085765628892731</v>
+        <v>0.01105580381483967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0276952369422851</v>
+        <v>0.02700577470976821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -4273,19 +4273,19 @@
         <v>7128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3023</v>
+        <v>3071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13442</v>
+        <v>14230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005347948095799515</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002267851904365194</v>
+        <v>0.002304518043215599</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01008571774939047</v>
+        <v>0.01067681960422108</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -4294,19 +4294,19 @@
         <v>32609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22686</v>
+        <v>21708</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47714</v>
+        <v>46226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01168580137540387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008129975321431478</v>
+        <v>0.007779228935362289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01709874168470401</v>
+        <v>0.01656557352685475</v>
       </c>
     </row>
     <row r="15">
@@ -4323,19 +4323,19 @@
         <v>50890</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38396</v>
+        <v>37832</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67868</v>
+        <v>69792</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03491118102222345</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02634043370604396</v>
+        <v>0.02595331375765025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04655808516798054</v>
+        <v>0.04787811727350293</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -4344,19 +4344,19 @@
         <v>44293</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32264</v>
+        <v>33019</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60464</v>
+        <v>59752</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03323372606778416</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02420786714213045</v>
+        <v>0.02477436720841689</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04536711069017368</v>
+        <v>0.04483293563488288</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>86</v>
@@ -4365,19 +4365,19 @@
         <v>95183</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>76005</v>
+        <v>76566</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>115276</v>
+        <v>118366</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0341100018619259</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02723752087438739</v>
+        <v>0.02743849266530233</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0413107508770844</v>
+        <v>0.04241790903603809</v>
       </c>
     </row>
     <row r="16">
@@ -4394,19 +4394,19 @@
         <v>139535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116132</v>
+        <v>117391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164345</v>
+        <v>163294</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09572309804659677</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07966798091924233</v>
+        <v>0.08053194050152609</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1127428999879466</v>
+        <v>0.1120222439759294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -4415,19 +4415,19 @@
         <v>114854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96243</v>
+        <v>95039</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139177</v>
+        <v>138235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08617674488031314</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07221247028028409</v>
+        <v>0.07130959118139167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1044269477024439</v>
+        <v>0.1037196374330905</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -4436,19 +4436,19 @@
         <v>254389</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227724</v>
+        <v>223528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>289382</v>
+        <v>286524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09116360797300281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08160791683120515</v>
+        <v>0.0801042168050141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.103703592822566</v>
+        <v>0.1026793468217211</v>
       </c>
     </row>
     <row r="17">
@@ -4465,19 +4465,19 @@
         <v>299177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>267486</v>
+        <v>265729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333823</v>
+        <v>328483</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2052395862248703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1834989979226828</v>
+        <v>0.1822938699240316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.229006871277816</v>
+        <v>0.2253438466614305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>257</v>
@@ -4486,19 +4486,19 @@
         <v>275270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>247339</v>
+        <v>244387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>306132</v>
+        <v>306988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2065392186772831</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1855822355846241</v>
+        <v>0.183367379129157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2296955506786518</v>
+        <v>0.2303377786648182</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>537</v>
@@ -4507,19 +4507,19 @@
         <v>574447</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>531476</v>
+        <v>530828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>617024</v>
+        <v>620030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2058603113502538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1904610064670819</v>
+        <v>0.1902289710617324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2211182317745556</v>
+        <v>0.2221956386888466</v>
       </c>
     </row>
     <row r="18">
@@ -4536,19 +4536,19 @@
         <v>599841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>557761</v>
+        <v>563233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>638818</v>
+        <v>642146</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4114990797721674</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3826316171799393</v>
+        <v>0.3863855926874281</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4382381927104741</v>
+        <v>0.4405211489384253</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>494</v>
@@ -4557,19 +4557,19 @@
         <v>527477</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>490167</v>
+        <v>488427</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>565596</v>
+        <v>561747</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3957737249946244</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3677800290357283</v>
+        <v>0.3664739664289716</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4243754955554129</v>
+        <v>0.4214874255048075</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1068</v>
@@ -4578,19 +4578,19 @@
         <v>1127318</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1079247</v>
+        <v>1069140</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1181811</v>
+        <v>1176730</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4039884002736146</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3867618540403105</v>
+        <v>0.3831396456101671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4235167708957829</v>
+        <v>0.4216960369429298</v>
       </c>
     </row>
     <row r="19">
@@ -4607,19 +4607,19 @@
         <v>280996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>250276</v>
+        <v>252463</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>312035</v>
+        <v>313816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1927671825700266</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1716928616239709</v>
+        <v>0.1731932713512944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2140603947177359</v>
+        <v>0.2152823073503305</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -4628,19 +4628,19 @@
         <v>306879</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>277509</v>
+        <v>276094</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>342819</v>
+        <v>341206</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2302557058503932</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2082195203177665</v>
+        <v>0.2071576279116777</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2572227162581707</v>
+        <v>0.2560124369375325</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>545</v>
@@ -4649,19 +4649,19 @@
         <v>587875</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>543869</v>
+        <v>538965</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>633479</v>
+        <v>632186</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2106722974126477</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1949023387879723</v>
+        <v>0.1931449283377602</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2270152486233131</v>
+        <v>0.2265516323745676</v>
       </c>
     </row>
     <row r="20">
@@ -4678,19 +4678,19 @@
         <v>60881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44889</v>
+        <v>46424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78471</v>
+        <v>79050</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04176520932728849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03079431405925777</v>
+        <v>0.03184723884356138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0538321828766318</v>
+        <v>0.05422966680965949</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -4699,19 +4699,19 @@
         <v>54894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40088</v>
+        <v>42125</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72034</v>
+        <v>73227</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04118772095059284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03007832987243817</v>
+        <v>0.03160682710048818</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05404857847390149</v>
+        <v>0.05494343298613674</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -4720,19 +4720,19 @@
         <v>115775</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95559</v>
+        <v>96086</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>138118</v>
+        <v>138219</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04148939169564468</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03424468186936346</v>
+        <v>0.03443379261926324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04949647640398517</v>
+        <v>0.04953234913646927</v>
       </c>
     </row>
     <row r="21">
@@ -4824,19 +4824,19 @@
         <v>4445</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10557</v>
+        <v>10935</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01359187906490808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003234767248354847</v>
+        <v>0.003198925942390159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03228070890230064</v>
+        <v>0.03343465361850364</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5068</v>
+        <v>4118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003060930847588371</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01554982340014258</v>
+        <v>0.01263401878134607</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -4866,19 +4866,19 @@
         <v>5443</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13419</v>
+        <v>12526</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008335458558791899</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003075176147716053</v>
+        <v>0.003081507531473849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02055160577438451</v>
+        <v>0.01918369503562304</v>
       </c>
     </row>
     <row r="23">
@@ -4895,19 +4895,19 @@
         <v>24064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14909</v>
+        <v>14882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36435</v>
+        <v>36529</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07357926479669648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04558825376868458</v>
+        <v>0.04550592388577027</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1114067092655388</v>
+        <v>0.1116948364584034</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -4916,19 +4916,19 @@
         <v>20198</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12255</v>
+        <v>11509</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32168</v>
+        <v>30854</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06197266265187737</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03760197953214688</v>
+        <v>0.03531114480020946</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09869764332643921</v>
+        <v>0.09466828778546446</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -4937,19 +4937,19 @@
         <v>44262</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30555</v>
+        <v>31283</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59594</v>
+        <v>59590</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06778594208146173</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0467938429795784</v>
+        <v>0.04790945259062927</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09126652335329516</v>
+        <v>0.09126086261844843</v>
       </c>
     </row>
     <row r="24">
@@ -4966,19 +4966,19 @@
         <v>35219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24062</v>
+        <v>25154</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48233</v>
+        <v>48687</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1076885327441224</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07357534532264855</v>
+        <v>0.07691276474002612</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1474811028959661</v>
+        <v>0.1488690834635683</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -4987,19 +4987,19 @@
         <v>30244</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20429</v>
+        <v>20450</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42660</v>
+        <v>42722</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09279680819691069</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06268078538575136</v>
+        <v>0.06274670944363211</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1308891618896906</v>
+        <v>0.1310793335301431</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -5008,19 +5008,19 @@
         <v>65463</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51034</v>
+        <v>49903</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82848</v>
+        <v>83171</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1002554730930779</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07815680793937997</v>
+        <v>0.07642520443749071</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1268795688720722</v>
+        <v>0.127373495038059</v>
       </c>
     </row>
     <row r="25">
@@ -5037,19 +5037,19 @@
         <v>75521</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60555</v>
+        <v>60369</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92947</v>
+        <v>93568</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2309199449524126</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1851589153024856</v>
+        <v>0.1845884108679863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.284204806764962</v>
+        <v>0.2861009965947172</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -5058,19 +5058,19 @@
         <v>53855</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40269</v>
+        <v>41310</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68547</v>
+        <v>68925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1652396906448453</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1235539296079001</v>
+        <v>0.1267478454708698</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2103188572938308</v>
+        <v>0.2114784145790201</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -5079,19 +5079,19 @@
         <v>129376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>110535</v>
+        <v>108957</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>155348</v>
+        <v>152329</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1981362840260946</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1692813997549</v>
+        <v>0.1668643530448433</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2379119849365595</v>
+        <v>0.2332877599091653</v>
       </c>
     </row>
     <row r="26">
@@ -5108,19 +5108,19 @@
         <v>78327</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62453</v>
+        <v>62947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96259</v>
+        <v>98066</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2395005194825494</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1909634117594132</v>
+        <v>0.1924738968719129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2943317118407012</v>
+        <v>0.2998549678219542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -5129,19 +5129,19 @@
         <v>87972</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70898</v>
+        <v>71794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>105841</v>
+        <v>105329</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2699186821689141</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2175310189597245</v>
+        <v>0.2202799966175462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3247457146187002</v>
+        <v>0.3231733070299137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>146</v>
@@ -5150,19 +5150,19 @@
         <v>166300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>143118</v>
+        <v>143446</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>190427</v>
+        <v>189615</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2546834499085125</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.219180863160936</v>
+        <v>0.2196829990383483</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2916345053289697</v>
+        <v>0.2903910548506106</v>
       </c>
     </row>
     <row r="27">
@@ -5179,19 +5179,19 @@
         <v>81461</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>64862</v>
+        <v>65409</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>99303</v>
+        <v>99295</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.249082080409174</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1983288352581697</v>
+        <v>0.200001709612598</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3036370723761755</v>
+        <v>0.3036140906385147</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>81</v>
@@ -5200,19 +5200,19 @@
         <v>88488</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>72253</v>
+        <v>73641</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>105733</v>
+        <v>106409</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2715020429867464</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2216892466642159</v>
+        <v>0.225946377316906</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3244129957453564</v>
+        <v>0.3264884438317012</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>153</v>
@@ -5221,19 +5221,19 @@
         <v>169949</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>145852</v>
+        <v>148807</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>192559</v>
+        <v>196322</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2602727869445351</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2233679148878671</v>
+        <v>0.2278945557171736</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2948996052201128</v>
+        <v>0.3006615244129938</v>
       </c>
     </row>
     <row r="28">
@@ -5250,19 +5250,19 @@
         <v>16488</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9370</v>
+        <v>9099</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28053</v>
+        <v>27915</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05041488048831355</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0286510384730928</v>
+        <v>0.02782105293366424</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0857775696742934</v>
+        <v>0.08535679142360351</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -5271,19 +5271,19 @@
         <v>31893</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21993</v>
+        <v>21516</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44868</v>
+        <v>45137</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09785617372129224</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06747917766908369</v>
+        <v>0.06601598910637395</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1376644463452957</v>
+        <v>0.1384901989153094</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>41</v>
@@ -5292,19 +5292,19 @@
         <v>48381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>35304</v>
+        <v>35465</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>65207</v>
+        <v>62722</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07409474116566184</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05406734400539163</v>
+        <v>0.05431332605912887</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0998630338291704</v>
+        <v>0.09605676974529309</v>
       </c>
     </row>
     <row r="29">
@@ -5321,19 +5321,19 @@
         <v>11519</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6328</v>
+        <v>5614</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19916</v>
+        <v>20634</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03522289806182344</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01934756805205615</v>
+        <v>0.01716501885394538</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06089552638435352</v>
+        <v>0.0630924489605785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -5342,19 +5342,19 @@
         <v>12272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6434</v>
+        <v>6826</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20710</v>
+        <v>20597</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03765300878182551</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01973969867466016</v>
+        <v>0.02094256608360485</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06354259486297302</v>
+        <v>0.06319627362747383</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -5363,19 +5363,19 @@
         <v>23791</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15216</v>
+        <v>15591</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>35231</v>
+        <v>35634</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03643586422186432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02330290498365467</v>
+        <v>0.02387791182203303</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05395519502158836</v>
+        <v>0.05457287291796978</v>
       </c>
     </row>
     <row r="30">
@@ -5467,19 +5467,19 @@
         <v>5340</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1920</v>
+        <v>2062</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12464</v>
+        <v>12501</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002070283609062634</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0007441270870263299</v>
+        <v>0.0007993751509598802</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.004831850952301692</v>
+        <v>0.004846036063564475</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5488,19 +5488,19 @@
         <v>5111</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12124</v>
+        <v>11323</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001856679499472329</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0007195794981283317</v>
+        <v>0.0007215537159475113</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004404037689498663</v>
+        <v>0.004113113100066946</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -5509,19 +5509,19 @@
         <v>10452</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5021</v>
+        <v>5344</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20110</v>
+        <v>19189</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001960010761427578</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0009415935002367523</v>
+        <v>0.001002174770745902</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.003771323992733476</v>
+        <v>0.003598569290546259</v>
       </c>
     </row>
     <row r="32">
@@ -5538,19 +5538,19 @@
         <v>53611</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40419</v>
+        <v>39148</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>72130</v>
+        <v>72441</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02078313129362654</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01566880265707087</v>
+        <v>0.01517628033009769</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0279620587195815</v>
+        <v>0.0280828084787533</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -5559,19 +5559,19 @@
         <v>29220</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19151</v>
+        <v>19579</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43431</v>
+        <v>42459</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01061445131723545</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006956662311191734</v>
+        <v>0.007112412401804991</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01577673640787598</v>
+        <v>0.01542356814981418</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -5580,19 +5580,19 @@
         <v>82831</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65169</v>
+        <v>65541</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>105013</v>
+        <v>104172</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0155335632968453</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01222137249429445</v>
+        <v>0.01229109798863114</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01969348269393861</v>
+        <v>0.0195357019892634</v>
       </c>
     </row>
     <row r="33">
@@ -5609,19 +5609,19 @@
         <v>89852</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>70566</v>
+        <v>71589</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>110895</v>
+        <v>110484</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03483225281306912</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02735586106415341</v>
+        <v>0.02775263474352657</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04298996650691477</v>
+        <v>0.04283053385135997</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>73</v>
@@ -5630,19 +5630,19 @@
         <v>80682</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>62110</v>
+        <v>63107</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>101032</v>
+        <v>101804</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02930861921967918</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02256205765556119</v>
+        <v>0.02292414007447435</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03670107109678658</v>
+        <v>0.03698157330409138</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>156</v>
@@ -5651,19 +5651,19 @@
         <v>170534</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>147120</v>
+        <v>146979</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>204127</v>
+        <v>199473</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03198068405437792</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02758976223499087</v>
+        <v>0.02756340102715474</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03828050476228105</v>
+        <v>0.03740772928633772</v>
       </c>
     </row>
     <row r="34">
@@ -5680,19 +5680,19 @@
         <v>234109</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>203277</v>
+        <v>206568</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>264543</v>
+        <v>263595</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09075549232380314</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07880321488314951</v>
+        <v>0.08007908064625632</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1025536615775298</v>
+        <v>0.1021862792885694</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>181</v>
@@ -5701,19 +5701,19 @@
         <v>198591</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>172121</v>
+        <v>171631</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>227138</v>
+        <v>230969</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07214024951517736</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06252500190533462</v>
+        <v>0.06234686564013034</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08251032385362855</v>
+        <v>0.08390213691651811</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>401</v>
@@ -5722,19 +5722,19 @@
         <v>432699</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>395694</v>
+        <v>391956</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>479381</v>
+        <v>479933</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08114539709734722</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07420570876930994</v>
+        <v>0.07350463184134839</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08989974072307368</v>
+        <v>0.09000328058429852</v>
       </c>
     </row>
     <row r="35">
@@ -5751,19 +5751,19 @@
         <v>459580</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>422076</v>
+        <v>420487</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>505183</v>
+        <v>508147</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1781626033820289</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1636236307731053</v>
+        <v>0.1630076097769273</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1958413569599276</v>
+        <v>0.1969903806341019</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>424</v>
@@ -5772,19 +5772,19 @@
         <v>458521</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>418564</v>
+        <v>417749</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>499438</v>
+        <v>498259</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1665626705367211</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1520479164684807</v>
+        <v>0.1517519443505907</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1814264469497042</v>
+        <v>0.1809981586587159</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>844</v>
@@ -5793,19 +5793,19 @@
         <v>918101</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>862170</v>
+        <v>860539</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>980906</v>
+        <v>977889</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1721741529272088</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1616853316817066</v>
+        <v>0.1613794526362742</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1839522001004822</v>
+        <v>0.1833863924446894</v>
       </c>
     </row>
     <row r="36">
@@ -5822,19 +5822,19 @@
         <v>979131</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>929246</v>
+        <v>928513</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1033579</v>
+        <v>1024670</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3795738199562907</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3602351560372828</v>
+        <v>0.35995118125169</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4006814212489316</v>
+        <v>0.3972276610356208</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>937</v>
@@ -5843,19 +5843,19 @@
         <v>1005691</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>951598</v>
+        <v>954272</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1056681</v>
+        <v>1059306</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3653282951848218</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3456784421424009</v>
+        <v>0.3466496926684016</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3838508136110257</v>
+        <v>0.3848044257110206</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1862</v>
@@ -5864,19 +5864,19 @@
         <v>1984822</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1916233</v>
+        <v>1913183</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2060115</v>
+        <v>2054520</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3722195860624832</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3593568484857403</v>
+        <v>0.3587849679606805</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3863394556905038</v>
+        <v>0.385290222323891</v>
       </c>
     </row>
     <row r="37">
@@ -5893,19 +5893,19 @@
         <v>625382</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>579444</v>
+        <v>581314</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>671603</v>
+        <v>671650</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.242438068562802</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2246294691123242</v>
+        <v>0.2253547274690225</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2603563473875938</v>
+        <v>0.2603747479299713</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>780</v>
@@ -5914,19 +5914,19 @@
         <v>838217</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>787028</v>
+        <v>789035</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>887066</v>
+        <v>889912</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3044913799181969</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2858967144779148</v>
+        <v>0.2866254859468976</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3222363995985297</v>
+        <v>0.3232702949435444</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1365</v>
@@ -5935,19 +5935,19 @@
         <v>1463599</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1387044</v>
+        <v>1402656</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1526794</v>
+        <v>1534474</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2744730109684921</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2601164290737787</v>
+        <v>0.2630442603970157</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2863242296494933</v>
+        <v>0.2877644927138073</v>
       </c>
     </row>
     <row r="38">
@@ -5964,19 +5964,19 @@
         <v>132549</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>109552</v>
+        <v>111084</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>155594</v>
+        <v>157448</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05138434805931696</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04246925415523519</v>
+        <v>0.04306326403263348</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06031813597014783</v>
+        <v>0.0610368823687196</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>125</v>
@@ -5985,19 +5985,19 @@
         <v>136810</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>115942</v>
+        <v>115613</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>163301</v>
+        <v>164464</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04969765480869585</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04211734967738168</v>
+        <v>0.0419977453077376</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0593210505461898</v>
+        <v>0.05974318593083757</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>248</v>
@@ -6006,19 +6006,19 @@
         <v>269358</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>241185</v>
+        <v>238434</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>308504</v>
+        <v>305773</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05051359483181792</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04523010939194672</v>
+        <v>0.04471431680133998</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.05785466249507049</v>
+        <v>0.05734243996686501</v>
       </c>
     </row>
     <row r="39">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4166</v>
+        <v>4255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001019897697365988</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005162402028411292</v>
+        <v>0.005271838344570287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4680</v>
+        <v>4562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0005732754413179748</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003259728817351412</v>
+        <v>0.003177216069657784</v>
       </c>
     </row>
     <row r="5">
@@ -6459,19 +6459,19 @@
         <v>3407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10208</v>
+        <v>9511</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005418657468290018</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001527357979358242</v>
+        <v>0.001517367837554078</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01623581589763872</v>
+        <v>0.015127458495742</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7720</v>
+        <v>7920</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002815760782824171</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009565450611043634</v>
+        <v>0.009813217525113084</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -6501,19 +6501,19 @@
         <v>5679</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2037</v>
+        <v>2048</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12691</v>
+        <v>13059</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003955592349191055</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001418694912023083</v>
+        <v>0.001426517148109198</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008839366974690583</v>
+        <v>0.009095655232782532</v>
       </c>
     </row>
     <row r="7">
@@ -6530,19 +6530,19 @@
         <v>8578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3966</v>
+        <v>3980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15569</v>
+        <v>17108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01364309033971048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006307158293083115</v>
+        <v>0.006329972184580089</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0247624171786382</v>
+        <v>0.02720943889470732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -6551,19 +6551,19 @@
         <v>10307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5257</v>
+        <v>4664</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19097</v>
+        <v>17888</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01277138634646292</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006513377416804861</v>
+        <v>0.005779120352987435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0236632193952638</v>
+        <v>0.02216430881505745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -6572,19 +6572,19 @@
         <v>18885</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11319</v>
+        <v>11516</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29051</v>
+        <v>29992</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0131531132638545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007883499104436748</v>
+        <v>0.008020817051576408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02023326688455551</v>
+        <v>0.02088875699660337</v>
       </c>
     </row>
     <row r="8">
@@ -6601,19 +6601,19 @@
         <v>48917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36867</v>
+        <v>35413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63138</v>
+        <v>62440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07780064879530574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05863533362689367</v>
+        <v>0.05632393915948884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1004193461352163</v>
+        <v>0.09930834659406118</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -6622,19 +6622,19 @@
         <v>45078</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32853</v>
+        <v>33983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59410</v>
+        <v>62647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05585569190318044</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04070814849392906</v>
+        <v>0.04210797211977781</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0736142169761778</v>
+        <v>0.07762509316836939</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -6643,19 +6643,19 @@
         <v>93995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76846</v>
+        <v>74990</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115468</v>
+        <v>115514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06546558334753802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05352170178956998</v>
+        <v>0.05222932858611448</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08042160022726379</v>
+        <v>0.08045339791966724</v>
       </c>
     </row>
     <row r="9">
@@ -6672,19 +6672,19 @@
         <v>143767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>123627</v>
+        <v>123445</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>164802</v>
+        <v>165360</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2286567815907433</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1966258410975404</v>
+        <v>0.1963364032992133</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2621136646951103</v>
+        <v>0.2630001578735318</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>179</v>
@@ -6693,19 +6693,19 @@
         <v>196968</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>172809</v>
+        <v>171922</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220855</v>
+        <v>221903</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2440609625385481</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2141256172913173</v>
+        <v>0.2130267068901401</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2736593792242635</v>
+        <v>0.2749572115182208</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>325</v>
@@ -6714,19 +6714,19 @@
         <v>340735</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>310749</v>
+        <v>307993</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>374354</v>
+        <v>373177</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2373153349474196</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.216430638314684</v>
+        <v>0.2145118117661633</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.260730648279545</v>
+        <v>0.2599106588546074</v>
       </c>
     </row>
     <row r="10">
@@ -6743,19 +6743,19 @@
         <v>334574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>309415</v>
+        <v>311096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>361323</v>
+        <v>361134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5321300460468553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4921160189966858</v>
+        <v>0.4947902761428931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5746739428781887</v>
+        <v>0.5743743767990745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>386</v>
@@ -6764,19 +6764,19 @@
         <v>430735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>399485</v>
+        <v>397214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>458825</v>
+        <v>460034</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5337194983216955</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4949979099504428</v>
+        <v>0.4921837825948799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.568524819226622</v>
+        <v>0.5700237163000227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>731</v>
@@ -6785,19 +6785,19 @@
         <v>765309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>724247</v>
+        <v>724064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>801933</v>
+        <v>800318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5330234630598226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5044248911610103</v>
+        <v>0.5042970108833329</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5585317511638005</v>
+        <v>0.5574070034289176</v>
       </c>
     </row>
     <row r="11">
@@ -6814,19 +6814,19 @@
         <v>89502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73174</v>
+        <v>73469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107676</v>
+        <v>109303</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1423507757590952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1163804904481135</v>
+        <v>0.1168510654285073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1712553452770151</v>
+        <v>0.1738437767869649</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -6835,19 +6835,19 @@
         <v>120860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102000</v>
+        <v>102123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143575</v>
+        <v>143535</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1497568024099229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.126386939592837</v>
+        <v>0.1265389861507088</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1779023401757437</v>
+        <v>0.1778525713745612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -6856,19 +6856,19 @@
         <v>210363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>185916</v>
+        <v>183014</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237594</v>
+        <v>239065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1465136375908563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1294873598181882</v>
+        <v>0.1274659831954596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1654798149871365</v>
+        <v>0.1665047123663848</v>
       </c>
     </row>
     <row r="12">
@@ -7007,19 +7007,19 @@
         <v>8481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4103</v>
+        <v>3899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16747</v>
+        <v>16399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005352910176608914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002589537868529806</v>
+        <v>0.002461007364328113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0105704787697666</v>
+        <v>0.01035118952000082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -7028,19 +7028,19 @@
         <v>8974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3853</v>
+        <v>3678</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16659</v>
+        <v>18720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005911593166190459</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002538133644676887</v>
+        <v>0.002422902801311913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01097354439762568</v>
+        <v>0.01233171761888992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -7049,19 +7049,19 @@
         <v>17455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9986</v>
+        <v>10304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28266</v>
+        <v>29277</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005626290228529929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003218846157713791</v>
+        <v>0.003321329905804678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009111123345749338</v>
+        <v>0.009437123649624598</v>
       </c>
     </row>
     <row r="15">
@@ -7078,19 +7078,19 @@
         <v>34404</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23815</v>
+        <v>23826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47606</v>
+        <v>48238</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02171572922804505</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01503218785793548</v>
+        <v>0.015038948552404</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03004891748417061</v>
+        <v>0.03044800764472365</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -7099,19 +7099,19 @@
         <v>27835</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18771</v>
+        <v>17874</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39746</v>
+        <v>39153</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01833568529000622</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01236531815962622</v>
+        <v>0.01177399342346632</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02618220527961519</v>
+        <v>0.02579106636828508</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>58</v>
@@ -7120,19 +7120,19 @@
         <v>62239</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>47733</v>
+        <v>46894</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>79230</v>
+        <v>79849</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02006177411484485</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01538616776213784</v>
+        <v>0.01511571345907645</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02553864292383738</v>
+        <v>0.02573826983604772</v>
       </c>
     </row>
     <row r="16">
@@ -7149,19 +7149,19 @@
         <v>101759</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81614</v>
+        <v>83503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122166</v>
+        <v>125228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06423051395442787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05151467916555656</v>
+        <v>0.0527071414826697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07711138282208782</v>
+        <v>0.07904423872144457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -7170,19 +7170,19 @@
         <v>111924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91062</v>
+        <v>91865</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133338</v>
+        <v>134197</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07372755485894071</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05998555118600239</v>
+        <v>0.06051421000560998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08783349815182145</v>
+        <v>0.08839964545520758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -7191,19 +7191,19 @@
         <v>213683</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>185380</v>
+        <v>187795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>244322</v>
+        <v>243010</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06887769595922878</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0597545419681504</v>
+        <v>0.06053327175920444</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07875374211404569</v>
+        <v>0.07833092008604706</v>
       </c>
     </row>
     <row r="17">
@@ -7220,19 +7220,19 @@
         <v>294076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>263464</v>
+        <v>261512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>324735</v>
+        <v>325918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1856215252567238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1662989171120806</v>
+        <v>0.1650668865861665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2049734352006641</v>
+        <v>0.2057201725509436</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>269</v>
@@ -7241,19 +7241,19 @@
         <v>278862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>249406</v>
+        <v>251097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>312439</v>
+        <v>312248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1836946320315486</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1642911206825597</v>
+        <v>0.1654049659636196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2058132779573686</v>
+        <v>0.2056872875489976</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>544</v>
@@ -7262,19 +7262,19 @@
         <v>572938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>527652</v>
+        <v>529227</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>613932</v>
+        <v>618686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1846786396135808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1700812071971808</v>
+        <v>0.1705889566310434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1978926517764502</v>
+        <v>0.1994247874015099</v>
       </c>
     </row>
     <row r="18">
@@ -7291,19 +7291,19 @@
         <v>560477</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>523438</v>
+        <v>523098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>597587</v>
+        <v>598943</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3537743565696288</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3303947821902695</v>
+        <v>0.3301802649968109</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.377198336830283</v>
+        <v>0.3780541571175114</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>488</v>
@@ -7312,19 +7312,19 @@
         <v>500682</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>461295</v>
+        <v>462195</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>540000</v>
+        <v>540763</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3298145323305284</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3038692223840633</v>
+        <v>0.304462162531586</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3557142458761967</v>
+        <v>0.3562172125008238</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1019</v>
@@ -7333,19 +7333,19 @@
         <v>1061159</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1002493</v>
+        <v>1007407</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1115897</v>
+        <v>1107276</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3420501084420641</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3231396171304561</v>
+        <v>0.3247238068306509</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3596940764668218</v>
+        <v>0.3569152428128285</v>
       </c>
     </row>
     <row r="19">
@@ -7362,19 +7362,19 @@
         <v>429983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>395360</v>
+        <v>394120</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>467829</v>
+        <v>466538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2714061725316584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2495522174332522</v>
+        <v>0.248769531077745</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2952946148487458</v>
+        <v>0.294479638485669</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>417</v>
@@ -7383,19 +7383,19 @@
         <v>438633</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>402425</v>
+        <v>402448</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>472882</v>
+        <v>477742</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2889408187032244</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2650893909366971</v>
+        <v>0.2651045951431796</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3115016623271507</v>
+        <v>0.3147029250870047</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>817</v>
@@ -7404,19 +7404,19 @@
         <v>868616</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>821415</v>
+        <v>818750</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>922686</v>
+        <v>919970</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2799863916723732</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2647717003111466</v>
+        <v>0.2639127084914174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2974152406185532</v>
+        <v>0.2965394947322061</v>
       </c>
     </row>
     <row r="20">
@@ -7433,19 +7433,19 @@
         <v>155099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132580</v>
+        <v>133869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180052</v>
+        <v>181402</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09789879228290711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08368497530550946</v>
+        <v>0.08449820356042488</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1136490878073635</v>
+        <v>0.1145010204931925</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>142</v>
@@ -7454,19 +7454,19 @@
         <v>151162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126540</v>
+        <v>128443</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>174135</v>
+        <v>176195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09957518361956122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08335560106784759</v>
+        <v>0.08460958913480673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1147080788231261</v>
+        <v>0.1160652186626265</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>285</v>
@@ -7475,19 +7475,19 @@
         <v>306261</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>275420</v>
+        <v>276924</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>341187</v>
+        <v>345258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09871909996937829</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08877790607865568</v>
+        <v>0.08926267390823062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1099770667462931</v>
+        <v>0.111289124101791</v>
       </c>
     </row>
     <row r="21">
@@ -7579,19 +7579,19 @@
         <v>4927</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1128</v>
+        <v>1826</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11127</v>
+        <v>11343</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01313839483610672</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00300758509730347</v>
+        <v>0.004869699552385515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02966791148592525</v>
+        <v>0.03024615631563807</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7267</v>
+        <v>7184</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005635054368134071</v>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01995417277961786</v>
+        <v>0.01972746327779064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -7621,19 +7621,19 @@
         <v>6979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2992</v>
+        <v>3031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13097</v>
+        <v>13794</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009441922480829161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004047974652898351</v>
+        <v>0.004100977283973008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01771816211107602</v>
+        <v>0.01866075689680551</v>
       </c>
     </row>
     <row r="23">
@@ -7650,19 +7650,19 @@
         <v>32741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21505</v>
+        <v>23024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46345</v>
+        <v>46739</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08729978687264707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05734103948615591</v>
+        <v>0.06139130215790328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1235735872898592</v>
+        <v>0.1246259702151947</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -7671,19 +7671,19 @@
         <v>18367</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11233</v>
+        <v>11612</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28932</v>
+        <v>29663</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05043581254537517</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03084484054305307</v>
+        <v>0.03188752508064145</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07944865286648274</v>
+        <v>0.08145577577010979</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -7692,19 +7692,19 @@
         <v>51107</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>36997</v>
+        <v>39022</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>67931</v>
+        <v>68449</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0691389873476802</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05004997936735361</v>
+        <v>0.05278934837612861</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09189792259941744</v>
+        <v>0.09259881925523203</v>
       </c>
     </row>
     <row r="24">
@@ -7721,19 +7721,19 @@
         <v>44474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32187</v>
+        <v>31685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59892</v>
+        <v>58738</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1185862173690635</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08582356597297665</v>
+        <v>0.08448420075944743</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1596965469896969</v>
+        <v>0.1566194944269208</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -7742,19 +7742,19 @@
         <v>34112</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23763</v>
+        <v>24320</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47895</v>
+        <v>46085</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09367335513399104</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06525315123875348</v>
+        <v>0.06678412370899432</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1315206849115242</v>
+        <v>0.1265520117970976</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -7763,19 +7763,19 @@
         <v>78587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62752</v>
+        <v>61165</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>95485</v>
+        <v>96674</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1063130562435807</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0848920805881325</v>
+        <v>0.08274500197089674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1291739220122614</v>
+        <v>0.1307824363959389</v>
       </c>
     </row>
     <row r="25">
@@ -7792,19 +7792,19 @@
         <v>89627</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72566</v>
+        <v>72725</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110184</v>
+        <v>107190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2389817105340818</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.193489746104153</v>
+        <v>0.1939149098712699</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.293793745233197</v>
+        <v>0.285812820116069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -7813,19 +7813,19 @@
         <v>75873</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61052</v>
+        <v>61472</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92351</v>
+        <v>94608</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2083483808673351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1676512886422348</v>
+        <v>0.1688043801361578</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2535982302011327</v>
+        <v>0.2597958687327684</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -7834,19 +7834,19 @@
         <v>165500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>142517</v>
+        <v>140065</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>187452</v>
+        <v>189155</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2238903979718213</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.192798961058247</v>
+        <v>0.1894825221519767</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.253587613049996</v>
+        <v>0.2558913415513488</v>
       </c>
     </row>
     <row r="26">
@@ -7863,19 +7863,19 @@
         <v>80298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64574</v>
+        <v>64631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>97429</v>
+        <v>96414</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2141081182639103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1721812490214671</v>
+        <v>0.1723333777360274</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2597860885034545</v>
+        <v>0.2570773104783694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -7884,19 +7884,19 @@
         <v>76566</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62492</v>
+        <v>61840</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>92635</v>
+        <v>92671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2102526927674737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1716044305463695</v>
+        <v>0.169814511876181</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2543784910871831</v>
+        <v>0.2544779917117524</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>154</v>
@@ -7905,19 +7905,19 @@
         <v>156865</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>136690</v>
+        <v>135181</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>182925</v>
+        <v>178811</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.212208767724475</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1849161675250943</v>
+        <v>0.1828754079974264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2474641649786932</v>
+        <v>0.2418981253004299</v>
       </c>
     </row>
     <row r="27">
@@ -7934,19 +7934,19 @@
         <v>77663</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>61250</v>
+        <v>62204</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>93368</v>
+        <v>94120</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2070798657102943</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1633181508436768</v>
+        <v>0.1658613611845748</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2489562573113264</v>
+        <v>0.2509605903973132</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>95</v>
@@ -7955,19 +7955,19 @@
         <v>97651</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>81282</v>
+        <v>80186</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>116277</v>
+        <v>114614</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2681521406158574</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2232016903371073</v>
+        <v>0.2201945656853121</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3193014676394618</v>
+        <v>0.3147338183839662</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>169</v>
@@ -7976,19 +7976,19 @@
         <v>175313</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>153307</v>
+        <v>153286</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>198683</v>
+        <v>201679</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2371667285983544</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2073966614957135</v>
+        <v>0.2073680146876595</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2687815771602509</v>
+        <v>0.2728345849515496</v>
       </c>
     </row>
     <row r="28">
@@ -8005,19 +8005,19 @@
         <v>36188</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25517</v>
+        <v>25640</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50343</v>
+        <v>50843</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09649289441106895</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06803961830071419</v>
+        <v>0.06836739568429467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1342358234212197</v>
+        <v>0.1355670846977751</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -8026,19 +8026,19 @@
         <v>40704</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30331</v>
+        <v>30087</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>54905</v>
+        <v>53156</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.11177465662365</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08328964662714569</v>
+        <v>0.08261985366858386</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1507711990684914</v>
+        <v>0.1459678726528894</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>72</v>
@@ -8047,19 +8047,19 @@
         <v>76892</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60164</v>
+        <v>60034</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>94798</v>
+        <v>94788</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1040213561408609</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08139080054153233</v>
+        <v>0.08121527355420251</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1282443375421961</v>
+        <v>0.1282302798843588</v>
       </c>
     </row>
     <row r="29">
@@ -8076,19 +8076,19 @@
         <v>9118</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4278</v>
+        <v>4762</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16911</v>
+        <v>17123</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02431301200282737</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01140587853021863</v>
+        <v>0.01269832759401026</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04509162814532625</v>
+        <v>0.04565792240757015</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -8097,19 +8097,19 @@
         <v>18837</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11156</v>
+        <v>10984</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28540</v>
+        <v>28571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05172790707818356</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03063467660930949</v>
+        <v>0.03016259675661005</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07837061943283156</v>
+        <v>0.07845614659005921</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -8118,19 +8118,19 @@
         <v>27956</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18931</v>
+        <v>18496</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40452</v>
+        <v>41190</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03781878349239834</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02561047389759751</v>
+        <v>0.02502207857081944</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05472353675678611</v>
+        <v>0.0557221871184275</v>
       </c>
     </row>
     <row r="30">
@@ -8222,19 +8222,19 @@
         <v>4927</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1832</v>
+        <v>1966</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12029</v>
+        <v>11123</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001903891981761568</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0007078353821145512</v>
+        <v>0.0007595932811988992</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.004647762113808128</v>
+        <v>0.00429767114738747</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -8243,19 +8243,19 @@
         <v>2875</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8003</v>
+        <v>7626</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001069124573620362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0003062104660810094</v>
+        <v>0.0003055698734044013</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.002975966651327842</v>
+        <v>0.002835839583694943</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -8264,19 +8264,19 @@
         <v>7803</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3695</v>
+        <v>3613</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13968</v>
+        <v>14649</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001478503110144649</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0007002522871582533</v>
+        <v>0.000684597221960029</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.002646805454046124</v>
+        <v>0.00277586542434983</v>
       </c>
     </row>
     <row r="32">
@@ -8293,19 +8293,19 @@
         <v>41221</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30008</v>
+        <v>27855</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54886</v>
+        <v>55625</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01592743938959886</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01159483990046687</v>
+        <v>0.01076277322616551</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02120729449351413</v>
+        <v>0.02149298209576044</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -8314,19 +8314,19 @@
         <v>27341</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18216</v>
+        <v>17855</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>40397</v>
+        <v>40027</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01016667591074328</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006773568094600447</v>
+        <v>0.006639401861968232</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01502139391050132</v>
+        <v>0.01488390937911725</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>62</v>
@@ -8335,19 +8335,19 @@
         <v>68562</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>53286</v>
+        <v>53031</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>89237</v>
+        <v>89406</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01299181366676541</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01009710889078897</v>
+        <v>0.01004882897944213</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01690947491858428</v>
+        <v>0.01694143843307105</v>
       </c>
     </row>
     <row r="33">
@@ -8364,19 +8364,19 @@
         <v>82285</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>64475</v>
+        <v>65222</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>103825</v>
+        <v>103525</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03179406943235055</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02491246966822564</v>
+        <v>0.02520103311387515</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0401167709464112</v>
+        <v>0.04000114532016101</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>61</v>
@@ -8385,19 +8385,19 @@
         <v>64220</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>48941</v>
+        <v>50475</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>81283</v>
+        <v>82942</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02387986254819552</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0181986226106601</v>
+        <v>0.01876891825192914</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03022477734045098</v>
+        <v>0.03084166725895122</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>134</v>
@@ -8406,19 +8406,19 @@
         <v>146505</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>122913</v>
+        <v>121804</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>172398</v>
+        <v>171416</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02776107113442937</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02329067690445756</v>
+        <v>0.02308063434036202</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03266754505867763</v>
+        <v>0.03248157218992789</v>
       </c>
     </row>
     <row r="34">
@@ -8435,19 +8435,19 @@
         <v>199964</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>173824</v>
+        <v>172277</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>229486</v>
+        <v>225852</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07726408245221227</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0671637122068148</v>
+        <v>0.06656605608429934</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08867084841001037</v>
+        <v>0.08726684728228669</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>187</v>
@@ -8456,19 +8456,19 @@
         <v>198103</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>171884</v>
+        <v>170967</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>226270</v>
+        <v>226888</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07366413488321553</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06391461222879963</v>
+        <v>0.06357366944475501</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08413799077822934</v>
+        <v>0.0843676243879153</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>373</v>
@@ -8477,19 +8477,19 @@
         <v>398067</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>359655</v>
+        <v>360303</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>438735</v>
+        <v>440977</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07542958625684026</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06815076974765698</v>
+        <v>0.06827358096935919</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08313570270738682</v>
+        <v>0.08356045980080606</v>
       </c>
     </row>
     <row r="35">
@@ -8506,19 +8506,19 @@
         <v>423292</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>382097</v>
+        <v>387555</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>459072</v>
+        <v>462733</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1635554988537879</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1476381797830213</v>
+        <v>0.1497472817179263</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.177380545931725</v>
+        <v>0.1787953695734299</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>385</v>
@@ -8527,19 +8527,19 @@
         <v>400506</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>364384</v>
+        <v>366234</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>440861</v>
+        <v>441349</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1489268592298888</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1354951728428777</v>
+        <v>0.1361829025493445</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1639329208788301</v>
+        <v>0.1641141890981008</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>787</v>
@@ -8548,19 +8548,19 @@
         <v>823797</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>777080</v>
+        <v>774988</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>878653</v>
+        <v>874269</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1561008948021544</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1472484974051312</v>
+        <v>0.146851985689273</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1664954803236673</v>
+        <v>0.1656647333985672</v>
       </c>
     </row>
     <row r="36">
@@ -8577,19 +8577,19 @@
         <v>781907</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>734039</v>
+        <v>734809</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>828350</v>
+        <v>828322</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3021206786656259</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2836251035606914</v>
+        <v>0.2839226955415105</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3200659938564206</v>
+        <v>0.3200552345909091</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>762</v>
@@ -8598,19 +8598,19 @@
         <v>795301</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>749293</v>
+        <v>747146</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>843933</v>
+        <v>847362</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2957303001215889</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2786225726566786</v>
+        <v>0.2778239944963408</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.313813976720909</v>
+        <v>0.3150890014596977</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1513</v>
@@ -8619,19 +8619,19 @@
         <v>1577207</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1507529</v>
+        <v>1510888</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1636152</v>
+        <v>1646053</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.298864207591718</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2856607903733251</v>
+        <v>0.286297349290502</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3100336733446121</v>
+        <v>0.3119097354743088</v>
       </c>
     </row>
     <row r="37">
@@ -8648,19 +8648,19 @@
         <v>800745</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>750990</v>
+        <v>752778</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>848419</v>
+        <v>847533</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.309399725190935</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2901746188843843</v>
+        <v>0.2908655510152665</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3278203879428578</v>
+        <v>0.3274778284047467</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>843</v>
@@ -8669,19 +8669,19 @@
         <v>910072</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>858610</v>
+        <v>859835</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>961328</v>
+        <v>956891</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3384076294085102</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3192715115379225</v>
+        <v>0.3197272267772565</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3574672519529055</v>
+        <v>0.3558172024617308</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1620</v>
@@ -8690,19 +8690,19 @@
         <v>1710817</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1639107</v>
+        <v>1647270</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1781042</v>
+        <v>1785692</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3241818543478014</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.310593471729515</v>
+        <v>0.3121402820958991</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3374886546234891</v>
+        <v>0.3383697518689414</v>
       </c>
     </row>
     <row r="38">
@@ -8719,19 +8719,19 @@
         <v>253720</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>224492</v>
+        <v>224502</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>284866</v>
+        <v>284771</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09803461403372803</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0867412426296849</v>
+        <v>0.08674536161725206</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1100694096839652</v>
+        <v>0.1100324040697666</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>268</v>
@@ -8740,19 +8740,19 @@
         <v>290860</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>256828</v>
+        <v>257923</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>324141</v>
+        <v>323141</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1081554133242375</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09550079605026045</v>
+        <v>0.09590803543928077</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1205308307986698</v>
+        <v>0.1201591171524711</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>508</v>
@@ -8761,19 +8761,19 @@
         <v>544579</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>499746</v>
+        <v>501225</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>591438</v>
+        <v>591559</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1031920690901464</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09469658811821756</v>
+        <v>0.09497693752501871</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1120713248295169</v>
+        <v>0.1120941356918232</v>
       </c>
     </row>
     <row r="39">
